--- a/文件读写/6月龄宝宝辅食表.xlsx
+++ b/文件读写/6月龄宝宝辅食表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/future/Documents/个人文件/宝宝/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/future/PycharmProjects/python_grammar/文件读写/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA4BFED-81D4-C943-9468-D1314721ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9AD898-5DD0-DC4F-AB37-BAAFCB3B2E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="129">
-  <si>
-    <t>6月龄宝宝辅食表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="128">
   <si>
     <t>时间</t>
   </si>
@@ -502,6 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -511,9 +511,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -818,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -831,303 +828,310 @@
     <col min="4" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
@@ -1135,17 +1139,19 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
@@ -1153,19 +1159,19 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
@@ -1173,19 +1179,19 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
@@ -1193,39 +1199,39 @@
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
       <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15">
@@ -1233,19 +1239,19 @@
         <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
@@ -1253,39 +1259,39 @@
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15">
       <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15">
@@ -1293,19 +1299,19 @@
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15">
@@ -1313,59 +1319,59 @@
         <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15">
@@ -1373,39 +1379,39 @@
         <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15">
@@ -1413,45 +1419,22 @@
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1472,634 +1455,634 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2136,659 +2119,659 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="24" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="24" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="24" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="24" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2812,633 +2795,633 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="45" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="38" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="36.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="34.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="32.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="36.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
